--- a/www.eia.gov/electricity/monthly/xls/table_1_11_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_11_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t>Table 1.11.A. Utility Scale Facility Net Generation from Renewable Sources Excluding Hydroelectric</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1389,37 +1389,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>792</v>
+        <v>840</v>
       </c>
       <c r="C7" s="10">
-        <v>850</v>
+        <v>906</v>
       </c>
       <c r="D7" s="11">
-        <v>-6.8000000000000005E-2</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="E7" s="10">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="10">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G7" s="10">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="H7" s="10">
-        <v>663</v>
+        <v>728</v>
       </c>
       <c r="I7" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="10">
         <v>15</v>
       </c>
       <c r="K7" s="10">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="L7" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1427,13 +1427,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C8" s="13">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" s="14">
-        <v>-7.4999999999999997E-2</v>
+        <v>0.123</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>18</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H8" s="13">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1465,13 +1465,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="13">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="C9" s="13">
-        <v>360</v>
+        <v>423</v>
       </c>
       <c r="D9" s="14">
-        <v>-0.13900000000000001</v>
+        <v>-0.17199999999999999</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="H9" s="13">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="I9" s="13">
         <v>7</v>
@@ -1492,10 +1492,10 @@
         <v>8</v>
       </c>
       <c r="K9" s="13">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="L9" s="13">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1503,13 +1503,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C10" s="13">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D10" s="14">
-        <v>0.04</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E10" s="13">
         <v>7</v>
@@ -1518,13 +1518,13 @@
         <v>8</v>
       </c>
       <c r="G10" s="13">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H10" s="13">
-        <v>153</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>18</v>
+        <v>144</v>
+      </c>
+      <c r="I10" s="13">
+        <v>3</v>
       </c>
       <c r="J10" s="13">
         <v>3</v>
@@ -1533,7 +1533,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="13">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1541,25 +1541,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C11" s="13">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D11" s="14">
-        <v>2.8000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E11" s="13">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="13">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G11" s="13">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H11" s="13">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>18</v>
@@ -1579,13 +1579,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="14">
-        <v>0.223</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>18</v>
@@ -1620,19 +1620,19 @@
         <v>63</v>
       </c>
       <c r="C13" s="13">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.219</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="E13" s="13">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F13" s="13">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G13" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H13" s="13">
         <v>31</v>
@@ -1641,7 +1641,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="13">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="K13" s="13">
         <v>0</v>
@@ -1655,37 +1655,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>1195</v>
+        <v>1279</v>
       </c>
       <c r="C14" s="10">
-        <v>1251</v>
+        <v>1318</v>
       </c>
       <c r="D14" s="11">
-        <v>-4.4999999999999998E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="E14" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="10">
-        <v>1081</v>
+        <v>1167</v>
       </c>
       <c r="H14" s="10">
-        <v>1128</v>
+        <v>1188</v>
       </c>
       <c r="I14" s="10">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J14" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="10">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L14" s="10">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1693,37 +1693,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C15" s="13">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D15" s="14">
-        <v>5.1999999999999998E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="E15" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="13">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H15" s="13">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="I15" s="13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J15" s="13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="13">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1731,13 +1731,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="C16" s="13">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="D16" s="14">
-        <v>-0.10199999999999999</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="H16" s="13">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="I16" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" s="13">
         <v>20</v>
@@ -1761,7 +1761,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="13">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1769,37 +1769,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
+        <v>564</v>
+      </c>
+      <c r="C17" s="13">
+        <v>582</v>
+      </c>
+      <c r="D17" s="14">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>516</v>
+      </c>
+      <c r="H17" s="13">
         <v>514</v>
       </c>
-      <c r="C17" s="13">
-        <v>518</v>
-      </c>
-      <c r="D17" s="14">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
-        <v>468</v>
-      </c>
-      <c r="H17" s="13">
-        <v>459</v>
-      </c>
       <c r="I17" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K17" s="13">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L17" s="13">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,37 +1807,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>2524</v>
+        <v>2801</v>
       </c>
       <c r="C18" s="10">
-        <v>3012</v>
+        <v>3291</v>
       </c>
       <c r="D18" s="11">
-        <v>-0.16200000000000001</v>
+        <v>-0.14899999999999999</v>
       </c>
       <c r="E18" s="10">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="F18" s="10">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="G18" s="10">
-        <v>2080</v>
+        <v>2288</v>
       </c>
       <c r="H18" s="10">
-        <v>2456</v>
+        <v>2718</v>
       </c>
       <c r="I18" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="10">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L18" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1845,25 +1845,25 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>1011</v>
+        <v>1121</v>
       </c>
       <c r="C19" s="13">
-        <v>1219</v>
+        <v>1426</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.17100000000000001</v>
+        <v>-0.214</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="13">
-        <v>1008</v>
+        <v>1117</v>
       </c>
       <c r="H19" s="13">
-        <v>1215</v>
+        <v>1421</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>18</v>
@@ -1883,25 +1883,25 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C20" s="13">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="D20" s="14">
-        <v>-8.4000000000000005E-2</v>
+        <v>-0.11600000000000001</v>
       </c>
       <c r="E20" s="13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="13">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="H20" s="13">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>18</v>
@@ -1921,25 +1921,25 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>597</v>
+        <v>693</v>
       </c>
       <c r="C21" s="13">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D21" s="14">
-        <v>-0.191</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="F21" s="13">
         <v>220</v>
       </c>
       <c r="G21" s="13">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="H21" s="13">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I21" s="13">
         <v>13</v>
@@ -1948,7 +1948,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="13">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L21" s="13">
         <v>55</v>
@@ -1959,25 +1959,25 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C22" s="13">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D22" s="14">
-        <v>-0.17299999999999999</v>
+        <v>-0.10199999999999999</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="13">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="H22" s="13">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>18</v>
@@ -1986,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="K22" s="13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L22" s="13">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1997,25 +1997,25 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="C23" s="13">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.19900000000000001</v>
+        <v>-0.16600000000000001</v>
       </c>
       <c r="E23" s="13">
+        <v>127</v>
+      </c>
+      <c r="F23" s="13">
+        <v>158</v>
+      </c>
+      <c r="G23" s="13">
         <v>94</v>
       </c>
-      <c r="F23" s="13">
-        <v>143</v>
-      </c>
-      <c r="G23" s="13">
-        <v>85</v>
-      </c>
       <c r="H23" s="13">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>18</v>
@@ -2024,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="K23" s="13">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L23" s="13">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2035,37 +2035,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>5810</v>
+        <v>5985</v>
       </c>
       <c r="C24" s="10">
-        <v>4970</v>
+        <v>5800</v>
       </c>
       <c r="D24" s="11">
-        <v>0.16900000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E24" s="10">
-        <v>1959</v>
+        <v>2153</v>
       </c>
       <c r="F24" s="10">
-        <v>1789</v>
+        <v>2035</v>
       </c>
       <c r="G24" s="10">
-        <v>3778</v>
+        <v>3771</v>
       </c>
       <c r="H24" s="10">
-        <v>3108</v>
+        <v>3692</v>
       </c>
       <c r="I24" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J24" s="10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K24" s="10">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L24" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2073,31 +2073,31 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>1814</v>
+        <v>2065</v>
       </c>
       <c r="C25" s="13">
-        <v>1715</v>
+        <v>2066</v>
       </c>
       <c r="D25" s="14">
-        <v>5.8000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13">
-        <v>1161</v>
+        <v>1344</v>
       </c>
       <c r="F25" s="13">
-        <v>1026</v>
+        <v>1278</v>
       </c>
       <c r="G25" s="13">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="H25" s="13">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" s="13">
         <v>5</v>
@@ -2111,25 +2111,25 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>1402</v>
+        <v>1227</v>
       </c>
       <c r="C26" s="13">
-        <v>884</v>
+        <v>1158</v>
       </c>
       <c r="D26" s="14">
-        <v>0.58599999999999997</v>
+        <v>0.06</v>
       </c>
       <c r="E26" s="13">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F26" s="13">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G26" s="13">
-        <v>1326</v>
+        <v>1163</v>
       </c>
       <c r="H26" s="13">
-        <v>819</v>
+        <v>1071</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -2137,11 +2137,11 @@
       <c r="J26" s="13">
         <v>0</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>18</v>
+      <c r="K26" s="13">
+        <v>0.02</v>
       </c>
       <c r="L26" s="13">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2149,37 +2149,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>1128</v>
+        <v>1164</v>
       </c>
       <c r="C27" s="13">
-        <v>1052</v>
+        <v>1279</v>
       </c>
       <c r="D27" s="14">
-        <v>7.1999999999999995E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="E27" s="13">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F27" s="13">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G27" s="13">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="H27" s="13">
-        <v>716</v>
+        <v>909</v>
       </c>
       <c r="I27" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" s="13">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L27" s="13">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2187,37 +2187,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C28" s="13">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D28" s="14">
-        <v>0.161</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="13">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H28" s="13">
-        <v>91</v>
-      </c>
-      <c r="I28" s="13">
-        <v>3</v>
+        <v>134</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J28" s="13">
-        <v>3</v>
+        <v>0.11</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L28" s="13">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2225,31 +2225,31 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C29" s="13">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="D29" s="14">
-        <v>0.24199999999999999</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E29" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" s="13">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G29" s="13">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H29" s="13">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="13">
         <v>0</v>
@@ -2263,25 +2263,25 @@
         <v>40</v>
       </c>
       <c r="B30" s="13">
-        <v>730</v>
+        <v>779</v>
       </c>
       <c r="C30" s="13">
-        <v>702</v>
+        <v>584</v>
       </c>
       <c r="D30" s="14">
-        <v>0.04</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="E30" s="13">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F30" s="13">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="G30" s="13">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="H30" s="13">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="I30" s="13">
         <v>0</v>
@@ -2289,11 +2289,11 @@
       <c r="J30" s="13">
         <v>0</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>18</v>
+      <c r="K30" s="13">
+        <v>0.13</v>
       </c>
       <c r="L30" s="13">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2301,25 +2301,25 @@
         <v>41</v>
       </c>
       <c r="B31" s="13">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C31" s="13">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D31" s="14">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E31" s="13">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F31" s="13">
         <v>90</v>
       </c>
       <c r="G31" s="13">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H31" s="13">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -2339,37 +2339,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>2047</v>
+        <v>2067</v>
       </c>
       <c r="C32" s="10">
-        <v>1787</v>
+        <v>1926</v>
       </c>
       <c r="D32" s="11">
-        <v>0.14599999999999999</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E32" s="10">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F32" s="10">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="G32" s="10">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="H32" s="10">
-        <v>787</v>
+        <v>873</v>
       </c>
       <c r="I32" s="10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K32" s="10">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="L32" s="10">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2377,22 +2377,22 @@
         <v>43</v>
       </c>
       <c r="B33" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="14">
-        <v>0.02</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="13">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="G33" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" s="13">
         <v>8</v>
@@ -2453,25 +2453,25 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="C35" s="13">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D35" s="14">
-        <v>-8.7999999999999995E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E35" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F35" s="13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="13">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H35" s="13">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>18</v>
@@ -2480,10 +2480,10 @@
         <v>4</v>
       </c>
       <c r="K35" s="13">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="L35" s="13">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2491,25 +2491,25 @@
         <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="C36" s="13">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="D36" s="14">
-        <v>0.25700000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="E36" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G36" s="13">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H36" s="13">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>18</v>
@@ -2518,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="13">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="L36" s="13">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2529,13 +2529,13 @@
         <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C37" s="13">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D37" s="14">
-        <v>0.187</v>
+        <v>0.113</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>18</v>
@@ -2544,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="13">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H37" s="13">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>18</v>
@@ -2559,7 +2559,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2567,37 +2567,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="13">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="C38" s="13">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="D38" s="14">
-        <v>0.53700000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="E38" s="13">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F38" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="13">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="H38" s="13">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="I38" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J38" s="13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K38" s="13">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L38" s="13">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2605,25 +2605,25 @@
         <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C39" s="13">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D39" s="14">
-        <v>0.19800000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E39" s="13">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F39" s="13">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G39" s="13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H39" s="13">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I39" s="13">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="13">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L39" s="13">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2643,37 +2643,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="13">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C40" s="13">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="D40" s="14">
-        <v>-6.4000000000000001E-2</v>
+        <v>-0.13500000000000001</v>
       </c>
       <c r="E40" s="13">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F40" s="13">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G40" s="13">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="H40" s="13">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I40" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J40" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K40" s="13">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L40" s="13">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2681,13 +2681,13 @@
         <v>51</v>
       </c>
       <c r="B41" s="13">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C41" s="13">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D41" s="14">
-        <v>6.7000000000000004E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="13">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H41" s="13">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2719,37 +2719,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="C42" s="10">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="D42" s="11">
-        <v>-2.7E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E42" s="10">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10">
         <v>9</v>
       </c>
-      <c r="F42" s="10">
-        <v>7</v>
-      </c>
       <c r="G42" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="10">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="K42" s="10">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="L42" s="10">
-        <v>467</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2757,13 +2757,13 @@
         <v>53</v>
       </c>
       <c r="B43" s="13">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="C43" s="13">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D43" s="14">
-        <v>-7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E43" s="13">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43" s="13">
         <v>25</v>
@@ -2784,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="L43" s="13">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2795,19 +2795,19 @@
         <v>54</v>
       </c>
       <c r="B44" s="13">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C44" s="13">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D44" s="14">
-        <v>0.29199999999999998</v>
+        <v>-0.1</v>
       </c>
       <c r="E44" s="13">
+        <v>8</v>
+      </c>
+      <c r="F44" s="13">
         <v>9</v>
-      </c>
-      <c r="F44" s="13">
-        <v>7</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>18</v>
@@ -2822,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="13">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L44" s="13">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2833,13 +2833,13 @@
         <v>55</v>
       </c>
       <c r="B45" s="13">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C45" s="13">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="14">
-        <v>-1.7999999999999999E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E45" s="13">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>18</v>
       </c>
       <c r="H45" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="13">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L45" s="13">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2871,13 +2871,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" s="13">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="14">
-        <v>1.2999999999999999E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>0</v>
       </c>
       <c r="G46" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J46" s="13">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="K46" s="13">
         <v>78</v>
       </c>
       <c r="L46" s="13">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2909,37 +2909,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>8113</v>
+        <v>6809</v>
       </c>
       <c r="C47" s="10">
-        <v>5221</v>
+        <v>6821</v>
       </c>
       <c r="D47" s="11">
-        <v>0.55400000000000005</v>
+        <v>-2E-3</v>
       </c>
       <c r="E47" s="10">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="F47" s="10">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="G47" s="10">
-        <v>7479</v>
+        <v>6219</v>
       </c>
       <c r="H47" s="10">
-        <v>4693</v>
+        <v>6235</v>
       </c>
       <c r="I47" s="10">
+        <v>6</v>
+      </c>
+      <c r="J47" s="10">
         <v>7</v>
       </c>
-      <c r="J47" s="10">
-        <v>5</v>
-      </c>
       <c r="K47" s="10">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L47" s="10">
-        <v>395</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2947,37 +2947,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="13">
+        <v>124</v>
+      </c>
+      <c r="C48" s="13">
+        <v>127</v>
+      </c>
+      <c r="D48" s="14">
+        <v>-0.03</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <v>9</v>
+      </c>
+      <c r="H48" s="13">
+        <v>6</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="K48" s="13">
+        <v>115</v>
+      </c>
+      <c r="L48" s="13">
         <v>121</v>
-      </c>
-      <c r="C48" s="13">
-        <v>119</v>
-      </c>
-      <c r="D48" s="14">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E48" s="13">
-        <v>0</v>
-      </c>
-      <c r="F48" s="13">
-        <v>0</v>
-      </c>
-      <c r="G48" s="13">
-        <v>11</v>
-      </c>
-      <c r="H48" s="13">
-        <v>5</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="K48" s="13">
-        <v>110</v>
-      </c>
-      <c r="L48" s="13">
-        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2985,13 +2985,13 @@
         <v>59</v>
       </c>
       <c r="B49" s="13">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C49" s="13">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D49" s="14">
-        <v>2.3E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L49" s="13">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3023,25 +3023,25 @@
         <v>60</v>
       </c>
       <c r="B50" s="13">
-        <v>2086</v>
+        <v>1725</v>
       </c>
       <c r="C50" s="13">
-        <v>1091</v>
+        <v>1617</v>
       </c>
       <c r="D50" s="14">
-        <v>0.91200000000000003</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E50" s="13">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F50" s="13">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="G50" s="13">
-        <v>1890</v>
+        <v>1561</v>
       </c>
       <c r="H50" s="13">
-        <v>970</v>
+        <v>1446</v>
       </c>
       <c r="I50" s="13">
         <v>0</v>
@@ -3050,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L50" s="13">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3061,37 +3061,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="13">
-        <v>5678</v>
+        <v>4730</v>
       </c>
       <c r="C51" s="13">
-        <v>3789</v>
+        <v>4852</v>
       </c>
       <c r="D51" s="14">
-        <v>0.499</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F51" s="13">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G51" s="13">
-        <v>5570</v>
+        <v>4641</v>
       </c>
       <c r="H51" s="13">
-        <v>3710</v>
-      </c>
-      <c r="I51" s="13">
-        <v>7</v>
+        <v>4776</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J51" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K51" s="13">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L51" s="13">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3099,37 +3099,37 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>3296</v>
+        <v>3288</v>
       </c>
       <c r="C52" s="10">
-        <v>2411</v>
+        <v>2782</v>
       </c>
       <c r="D52" s="11">
-        <v>0.36699999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="E52" s="10">
+        <v>289</v>
+      </c>
+      <c r="F52" s="10">
         <v>320</v>
       </c>
-      <c r="F52" s="10">
-        <v>247</v>
-      </c>
       <c r="G52" s="10">
-        <v>2934</v>
+        <v>2957</v>
       </c>
       <c r="H52" s="10">
-        <v>2116</v>
+        <v>2419</v>
       </c>
       <c r="I52" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J52" s="10">
         <v>9</v>
       </c>
       <c r="K52" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L52" s="10">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3137,28 +3137,28 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="C53" s="13">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D53" s="14">
-        <v>0.16</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E53" s="13">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F53" s="13">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G53" s="13">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="H53" s="13">
-        <v>275</v>
-      </c>
-      <c r="I53" s="13">
-        <v>2</v>
+        <v>282</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J53" s="13">
         <v>2</v>
@@ -3175,28 +3175,28 @@
         <v>64</v>
       </c>
       <c r="B54" s="13">
-        <v>863</v>
+        <v>985</v>
       </c>
       <c r="C54" s="13">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="D54" s="14">
-        <v>0.245</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="E54" s="13">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F54" s="13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G54" s="13">
-        <v>852</v>
+        <v>960</v>
       </c>
       <c r="H54" s="13">
-        <v>682</v>
-      </c>
-      <c r="I54" s="13">
-        <v>2</v>
+        <v>667</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J54" s="13">
         <v>1</v>
@@ -3205,7 +3205,7 @@
         <v>18</v>
       </c>
       <c r="L54" s="13">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3213,13 +3213,13 @@
         <v>65</v>
       </c>
       <c r="B55" s="13">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="C55" s="13">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="D55" s="14">
-        <v>-4.2999999999999997E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>18</v>
@@ -3228,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="13">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="H55" s="13">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>18</v>
@@ -3240,10 +3240,10 @@
         <v>1</v>
       </c>
       <c r="K55" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L55" s="13">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3251,25 +3251,25 @@
         <v>66</v>
       </c>
       <c r="B56" s="13">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="C56" s="13">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="D56" s="14">
-        <v>-8.1000000000000003E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E56" s="13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F56" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="13">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="H56" s="13">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3289,28 +3289,28 @@
         <v>67</v>
       </c>
       <c r="B57" s="13">
-        <v>578</v>
+        <v>532</v>
       </c>
       <c r="C57" s="13">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="D57" s="14">
-        <v>0.39</v>
+        <v>0.123</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="13">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="H57" s="13">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="I57" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J57" s="13">
         <v>4</v>
@@ -3319,7 +3319,7 @@
         <v>18</v>
       </c>
       <c r="L57" s="13">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3327,31 +3327,31 @@
         <v>68</v>
       </c>
       <c r="B58" s="13">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="C58" s="13">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="D58" s="14">
-        <v>0.96499999999999997</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="E58" s="13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F58" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="13">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="H58" s="13">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J58" s="13">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="K58" s="13">
         <v>0</v>
@@ -3365,25 +3365,25 @@
         <v>69</v>
       </c>
       <c r="B59" s="13">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="C59" s="13">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D59" s="14">
-        <v>2.3079999999999998</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="E59" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F59" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G59" s="13">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="H59" s="13">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>18</v>
@@ -3403,25 +3403,25 @@
         <v>70</v>
       </c>
       <c r="B60" s="13">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="C60" s="13">
-        <v>284</v>
+        <v>445</v>
       </c>
       <c r="D60" s="14">
-        <v>0.49399999999999999</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="E60" s="13">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="F60" s="13">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="G60" s="13">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H60" s="13">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3441,37 +3441,37 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>5424</v>
+        <v>4761</v>
       </c>
       <c r="C61" s="10">
-        <v>4585</v>
+        <v>4533</v>
       </c>
       <c r="D61" s="11">
-        <v>0.183</v>
+        <v>0.05</v>
       </c>
       <c r="E61" s="10">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="F61" s="10">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="G61" s="10">
-        <v>4505</v>
+        <v>3892</v>
       </c>
       <c r="H61" s="10">
-        <v>3683</v>
+        <v>3649</v>
       </c>
       <c r="I61" s="10">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J61" s="10">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K61" s="10">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L61" s="10">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3479,37 +3479,37 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>4112</v>
+        <v>3428</v>
       </c>
       <c r="C62" s="13">
-        <v>3273</v>
+        <v>3108</v>
       </c>
       <c r="D62" s="14">
-        <v>0.25600000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E62" s="13">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F62" s="13">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G62" s="13">
-        <v>3812</v>
+        <v>3159</v>
       </c>
       <c r="H62" s="13">
-        <v>3001</v>
+        <v>2857</v>
       </c>
       <c r="I62" s="13">
+        <v>73</v>
+      </c>
+      <c r="J62" s="13">
         <v>77</v>
       </c>
-      <c r="J62" s="13">
-        <v>87</v>
-      </c>
       <c r="K62" s="13">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L62" s="13">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3517,25 +3517,25 @@
         <v>73</v>
       </c>
       <c r="B63" s="13">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="C63" s="13">
-        <v>550</v>
+        <v>645</v>
       </c>
       <c r="D63" s="14">
-        <v>-3.3000000000000002E-2</v>
+        <v>-0.13700000000000001</v>
       </c>
       <c r="E63" s="13">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F63" s="13">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G63" s="13">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="H63" s="13">
-        <v>410</v>
+        <v>503</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>18</v>
@@ -3544,10 +3544,10 @@
         <v>2</v>
       </c>
       <c r="K63" s="13">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L63" s="13">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3555,25 +3555,25 @@
         <v>74</v>
       </c>
       <c r="B64" s="13">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C64" s="13">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="D64" s="14">
-        <v>2.4E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E64" s="13">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F64" s="13">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G64" s="13">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H64" s="13">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>18</v>
@@ -3582,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="K64" s="13">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L64" s="13">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3593,34 +3593,34 @@
         <v>75</v>
       </c>
       <c r="B65" s="10">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C65" s="10">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="D65" s="11">
-        <v>0.46500000000000002</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E65" s="10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F65" s="10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G65" s="10">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H65" s="10">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="I65" s="10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J65" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K65" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L65" s="10">
         <v>8</v>
@@ -3631,25 +3631,25 @@
         <v>76</v>
       </c>
       <c r="B66" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C66" s="13">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D66" s="14">
-        <v>0.21099999999999999</v>
+        <v>-0.18099999999999999</v>
       </c>
       <c r="E66" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F66" s="13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G66" s="13">
         <v>5</v>
       </c>
       <c r="H66" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I66" s="13" t="s">
         <v>18</v>
@@ -3661,7 +3661,7 @@
         <v>18</v>
       </c>
       <c r="L66" s="13">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3669,37 +3669,37 @@
         <v>77</v>
       </c>
       <c r="B67" s="13">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C67" s="13">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D67" s="14">
-        <v>0.50800000000000001</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F67" s="13">
+        <v>5</v>
+      </c>
+      <c r="G67" s="13">
+        <v>93</v>
+      </c>
+      <c r="H67" s="13">
+        <v>91</v>
+      </c>
+      <c r="I67" s="13">
+        <v>16</v>
+      </c>
+      <c r="J67" s="13">
+        <v>15</v>
+      </c>
+      <c r="K67" s="13">
+        <v>5</v>
+      </c>
+      <c r="L67" s="13">
         <v>7</v>
-      </c>
-      <c r="G67" s="13">
-        <v>102</v>
-      </c>
-      <c r="H67" s="13">
-        <v>61</v>
-      </c>
-      <c r="I67" s="13">
-        <v>20</v>
-      </c>
-      <c r="J67" s="13">
-        <v>13</v>
-      </c>
-      <c r="K67" s="13">
-        <v>7</v>
-      </c>
-      <c r="L67" s="13">
-        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3707,37 +3707,37 @@
         <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>29857</v>
+        <v>28516</v>
       </c>
       <c r="C68" s="10">
-        <v>24708</v>
+        <v>28065</v>
       </c>
       <c r="D68" s="11">
-        <v>0.20799999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>3649</v>
+        <v>3775</v>
       </c>
       <c r="F68" s="10">
-        <v>3375</v>
+        <v>3776</v>
       </c>
       <c r="G68" s="10">
-        <v>23680</v>
+        <v>22125</v>
       </c>
       <c r="H68" s="10">
-        <v>18743</v>
+        <v>21645</v>
       </c>
       <c r="I68" s="10">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="J68" s="10">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K68" s="10">
-        <v>2277</v>
+        <v>2381</v>
       </c>
       <c r="L68" s="10">
-        <v>2324</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
